--- a/va_facility_data_2025-02-20/Kerrville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Kerrville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kerrville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Kerrville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd867fe75ce894cddbfee3ea502115e6b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R79e78304c5f7429695a88cdc04eef099"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra688fce987e1413a89393a6a1e26d939"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4649e6ac9205497dba7a8dcd1672cc8b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rff1605f61ee9440da390008ba79d9c07"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23c11efa344d43d0b42c9f2ac014af9f"/>
   </x:sheets>
 </x:workbook>
 </file>
